--- a/Coverage Survey/Burkina Faso/Oncho/2024/oct 2024/bf_oncho_cov_2_2410_couverture.xlsx
+++ b/Coverage Survey/Burkina Faso/Oncho/2024/oct 2024/bf_oncho_cov_2_2410_couverture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Burkina Faso\Oncho\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Burkina Faso\Oncho\2024\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F6E17-5AFF-4D63-8CD2-D30D3A312244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7346656-2245-4D99-91D1-3EA3C2C56836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -923,10 +923,10 @@
     <t>Personne n’est passé</t>
   </si>
   <si>
-    <t>(Mar 2024) BFA Cov ONCHO - 2.Formulaire Couverture</t>
-  </si>
-  <si>
-    <t>bf_oncho_cov_2_202403_couverture</t>
+    <t>(Oct 2024) BFA Cov ONCHO - 2.Formulaire Couverture</t>
+  </si>
+  <si>
+    <t>bf_oncho_cov_2_2410_couverture</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1335,7 @@
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3767,7 +3767,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
